--- a/Data/DataDict.xlsx
+++ b/Data/DataDict.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tyleroldham/Documents/Classes/COM4970/Drive/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tyleroldham/Documents/GitHub/college-web-accessibility/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08933416-1ECC-D74A-8AD7-2BA00465C324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8013CE12-B4BA-D245-ADED-9C0819911573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" activeTab="2" xr2:uid="{1983BC9B-0584-874F-8287-8EC90C3BB9DF}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{1983BC9B-0584-874F-8287-8EC90C3BB9DF}"/>
   </bookViews>
   <sheets>
     <sheet name="joined" sheetId="1" r:id="rId1"/>
@@ -1327,9 +1327,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE2DFE6-C763-594C-B7E8-5D7551924721}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31:E31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1392,7 +1392,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>99</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>100</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>104</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>105</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>106</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>107</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>109</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>110</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="85" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>112</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>114</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>115</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>128</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>129</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>133</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>132</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>116</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>117</v>
       </c>
@@ -2152,9 +2152,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF210FA-23E0-8245-8A36-A5E033653335}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2506,11 +2506,11 @@
   <conditionalFormatting sqref="A18:A19">
     <cfRule type="duplicateValues" dxfId="3" priority="21"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A20">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B18:B19">
-    <cfRule type="duplicateValues" dxfId="2" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>

--- a/Data/DataDict.xlsx
+++ b/Data/DataDict.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tyleroldham/Documents/GitHub/college-web-accessibility/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8013CE12-B4BA-D245-ADED-9C0819911573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD57153-1EE5-A242-8215-064FC6CA2E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{1983BC9B-0584-874F-8287-8EC90C3BB9DF}"/>
   </bookViews>
   <sheets>
-    <sheet name="joined" sheetId="1" r:id="rId1"/>
-    <sheet name="wave" sheetId="3" r:id="rId2"/>
-    <sheet name="ipeds" sheetId="4" r:id="rId3"/>
-    <sheet name="calculated" sheetId="2" r:id="rId4"/>
+    <sheet name="joined" sheetId="6" r:id="rId1"/>
+    <sheet name="joined_archive" sheetId="1" r:id="rId2"/>
+    <sheet name="wave" sheetId="3" r:id="rId3"/>
+    <sheet name="ipeds" sheetId="4" r:id="rId4"/>
+    <sheet name="calculated" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="144">
   <si>
     <t>Description</t>
   </si>
@@ -478,6 +479,9 @@
   </si>
   <si>
     <t>URL</t>
+  </si>
+  <si>
+    <t>Use</t>
   </si>
 </sst>
 </file>
@@ -544,7 +548,247 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 6" xfId="1" xr:uid="{28ABE54C-71A9-234F-96A0-BF88452B085D}"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="71">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1324,12 +1568,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE2DFE6-C763-594C-B7E8-5D7551924721}">
-  <dimension ref="A1:F31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36B05A7-8554-B546-9757-6D047F7782AE}">
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1392,52 +1636,52 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F6" t="s">
         <v>137</v>
@@ -1445,16 +1689,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F7" t="s">
         <v>137</v>
@@ -1462,485 +1706,211 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F8" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>103</v>
+      <c r="A9" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>104</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>105</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>106</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>75</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="F12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>107</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" t="s">
-        <v>60</v>
+        <v>48</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" t="s">
-        <v>72</v>
+        <v>52</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="F14" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" t="s">
-        <v>73</v>
+        <v>51</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="F15" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>110</v>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" t="s">
-        <v>74</v>
+        <v>55</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="F16" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>76</v>
+        <v>28</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="F17" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="85" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="34" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F22" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F26" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F27" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F28" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="F30" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="F31" t="s">
-        <v>138</v>
-      </c>
-    </row>
   </sheetData>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="duplicateValues" dxfId="70" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="duplicateValues" dxfId="69" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="duplicateValues" dxfId="68" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="duplicateValues" dxfId="67" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="duplicateValues" dxfId="65" priority="21"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="46" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="45" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="44" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="43" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="42" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="41" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20">
-    <cfRule type="duplicateValues" dxfId="40" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="39" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="38" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="36" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="34" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25">
-    <cfRule type="duplicateValues" dxfId="32" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="30" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="28" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30:A31">
-    <cfRule type="duplicateValues" dxfId="22" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:B31">
-    <cfRule type="duplicateValues" dxfId="21" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1948,6 +1918,714 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE2DFE6-C763-594C-B7E8-5D7551924721}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="25.83203125" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" t="s">
+        <v>138</v>
+      </c>
+      <c r="G20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" t="s">
+        <v>138</v>
+      </c>
+      <c r="G25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" t="s">
+        <v>138</v>
+      </c>
+      <c r="G28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
+        <v>138</v>
+      </c>
+      <c r="G29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="F30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="F31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="duplicateValues" dxfId="46" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="duplicateValues" dxfId="45" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="duplicateValues" dxfId="44" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="duplicateValues" dxfId="43" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
+    <cfRule type="duplicateValues" dxfId="42" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19">
+    <cfRule type="duplicateValues" dxfId="41" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20">
+    <cfRule type="duplicateValues" dxfId="40" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21">
+    <cfRule type="duplicateValues" dxfId="39" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22">
+    <cfRule type="duplicateValues" dxfId="38" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="duplicateValues" dxfId="36" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24">
+    <cfRule type="duplicateValues" dxfId="34" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="duplicateValues" dxfId="32" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26">
+    <cfRule type="duplicateValues" dxfId="30" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27">
+    <cfRule type="duplicateValues" dxfId="28" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28">
+    <cfRule type="duplicateValues" dxfId="26" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="duplicateValues" dxfId="24" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:A31">
+    <cfRule type="duplicateValues" dxfId="22" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:B31">
+    <cfRule type="duplicateValues" dxfId="21" priority="19"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5378E431-3077-6441-8E98-25A5B12EF60F}">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -2148,7 +2826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF210FA-23E0-8245-8A36-A5E033653335}">
   <dimension ref="A1:E20"/>
   <sheetViews>
@@ -2519,7 +3197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7D9244-F5DB-A64D-ABA7-5396C6ED75B7}">
   <dimension ref="A1:D3"/>
   <sheetViews>
